--- a/app/Licenciatura_em_Engenharia_Rural.xlsx
+++ b/app/Licenciatura_em_Engenharia_Rural.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="273">
   <si>
     <t>UNIVERSIDADE EDUARDO MONDLANE</t>
   </si>
@@ -197,9 +197,6 @@
     <t>Rosa Mario Luis Manga</t>
   </si>
   <si>
-    <t>Distrito de Inhassoro</t>
-  </si>
-  <si>
     <t>Masculino</t>
   </si>
   <si>
@@ -233,9 +230,6 @@
     <t>Benedita Mario  Cuamba</t>
   </si>
   <si>
-    <t>Cidade de Maxixe</t>
-  </si>
-  <si>
     <t>BI</t>
   </si>
   <si>
@@ -263,9 +257,6 @@
     <t>Joana Armando Mataia</t>
   </si>
   <si>
-    <t>Cidade de Quelimane</t>
-  </si>
-  <si>
     <t>040100294925M</t>
   </si>
   <si>
@@ -290,9 +281,6 @@
     <t>Maria Paulina Sitoe</t>
   </si>
   <si>
-    <t>Distrito de Mavalane</t>
-  </si>
-  <si>
     <t>100100901344B</t>
   </si>
   <si>
@@ -317,9 +305,6 @@
     <t>Ermelinda Samaria Macamo</t>
   </si>
   <si>
-    <t>Distrito de Manhiça</t>
-  </si>
-  <si>
     <t>+258849502450</t>
   </si>
   <si>
@@ -341,9 +326,6 @@
     <t>Gloria Armando Mavia</t>
   </si>
   <si>
-    <t>Cidade de Inhambane</t>
-  </si>
-  <si>
     <t>08140057896C</t>
   </si>
   <si>
@@ -389,9 +371,6 @@
     <t>Anifa Ussene</t>
   </si>
   <si>
-    <t>Distrito Municipal de Kampfumo</t>
-  </si>
-  <si>
     <t>110101301842B</t>
   </si>
   <si>
@@ -416,9 +395,6 @@
     <t>Eva Salome  Mucavele</t>
   </si>
   <si>
-    <t>Cidade de Xai-Xai</t>
-  </si>
-  <si>
     <t>090100148434Q</t>
   </si>
   <si>
@@ -464,9 +440,6 @@
     <t>Delfina Finiche Mundlovo</t>
   </si>
   <si>
-    <t>Distrito de Vilanculos</t>
-  </si>
-  <si>
     <t>080102580182S</t>
   </si>
   <si>
@@ -623,9 +596,6 @@
     <t xml:space="preserve">Marta AntÓnio Banze </t>
   </si>
   <si>
-    <t>Distrito Municipal Kamubukwana</t>
-  </si>
-  <si>
     <t>110101479060J</t>
   </si>
   <si>
@@ -719,9 +689,6 @@
     <t>Graciela Feliciano Ramos</t>
   </si>
   <si>
-    <t>Distrito de Boane</t>
-  </si>
-  <si>
     <t>110100460514M</t>
   </si>
   <si>
@@ -806,9 +773,6 @@
     <t>Crisalda Odete Nhacuonga</t>
   </si>
   <si>
-    <t>Distrito de Zavala</t>
-  </si>
-  <si>
     <t>081402702971N</t>
   </si>
   <si>
@@ -876,9 +840,6 @@
   </si>
   <si>
     <t>Eugenia Sulate Cobre</t>
-  </si>
-  <si>
-    <t>Distrito de Mocuba</t>
   </si>
   <si>
     <t>041100469590F</t>
@@ -2165,7 +2126,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2181,7 +2142,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2197,7 +2158,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2213,7 +2174,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2229,7 +2190,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2244,9 +2205,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>122</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2254,7 +2213,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2265,7 +2224,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2274,7 +2233,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2286,7 +2245,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2294,7 +2253,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2390,7 +2349,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2433,7 +2392,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -2760,7 +2719,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2776,7 +2735,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2792,7 +2751,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2808,7 +2767,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2824,7 +2783,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2839,9 +2798,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>97</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2849,7 +2806,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2860,7 +2817,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2869,7 +2826,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2881,7 +2838,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2889,7 +2846,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2985,7 +2942,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3028,7 +2985,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3355,7 +3312,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3371,7 +3328,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3387,7 +3344,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3403,7 +3360,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3419,7 +3376,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3434,9 +3391,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>138</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3444,7 +3399,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3455,7 +3410,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3464,7 +3419,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3476,7 +3431,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3484,7 +3439,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3580,7 +3535,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3623,7 +3578,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3950,7 +3905,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3966,7 +3921,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3982,7 +3937,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3998,7 +3953,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4014,7 +3969,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4029,9 +3984,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>97</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4039,7 +3992,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4050,7 +4003,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4059,7 +4012,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4071,7 +4024,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4175,7 +4128,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4218,7 +4171,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4545,7 +4498,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4561,7 +4514,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4577,7 +4530,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4593,7 +4546,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4609,7 +4562,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4624,9 +4577,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>122</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4634,7 +4585,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4645,7 +4596,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4654,7 +4605,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4666,7 +4617,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4674,7 +4625,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4770,7 +4721,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4813,7 +4764,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5140,7 +5091,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5156,7 +5107,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5172,7 +5123,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5188,7 +5139,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5204,7 +5155,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5219,9 +5170,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>97</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5229,7 +5178,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5240,7 +5189,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5249,7 +5198,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5261,7 +5210,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5269,7 +5218,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5365,7 +5314,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5408,7 +5357,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5735,7 +5684,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5751,7 +5700,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5767,7 +5716,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5783,7 +5732,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5799,7 +5748,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5814,9 +5763,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5824,7 +5771,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5835,7 +5782,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5844,7 +5791,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5856,7 +5803,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5864,7 +5811,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5960,7 +5907,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6003,7 +5950,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6330,7 +6277,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6346,7 +6293,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6362,7 +6309,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6378,7 +6325,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6394,7 +6341,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6409,9 +6356,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>80</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6419,7 +6364,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6430,7 +6375,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6439,7 +6384,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6451,7 +6396,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6459,7 +6404,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6555,7 +6500,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6598,7 +6543,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6925,7 +6870,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6941,7 +6886,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6957,7 +6902,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6973,7 +6918,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6989,7 +6934,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7004,9 +6949,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>61</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7014,7 +6957,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7025,7 +6968,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7034,7 +6977,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7046,7 +6989,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7150,7 +7093,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7193,7 +7136,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7520,7 +7463,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7536,7 +7479,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7552,7 +7495,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7568,7 +7511,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7584,7 +7527,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7599,9 +7542,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>191</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7609,7 +7550,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7620,7 +7561,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7629,7 +7570,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7641,7 +7582,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7649,7 +7590,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7745,7 +7686,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7788,7 +7729,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8194,9 +8135,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8204,7 +8143,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8215,7 +8154,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8224,7 +8163,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8236,7 +8175,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8340,7 +8279,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8383,7 +8322,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8710,7 +8649,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -8726,7 +8665,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -8742,7 +8681,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -8758,7 +8697,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -8774,7 +8713,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -8789,9 +8728,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>97</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8799,7 +8736,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8810,7 +8747,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8819,7 +8756,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8831,7 +8768,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8839,7 +8776,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8935,7 +8872,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8978,7 +8915,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9305,7 +9242,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9321,7 +9258,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9337,7 +9274,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9353,7 +9290,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9369,7 +9306,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9384,9 +9321,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>191</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9394,7 +9329,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9405,7 +9340,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9414,7 +9349,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9426,7 +9361,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9434,7 +9369,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9530,7 +9465,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9573,7 +9508,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9900,7 +9835,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9916,7 +9851,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9932,7 +9867,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9948,7 +9883,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9964,7 +9899,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9979,9 +9914,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>97</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9989,7 +9922,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10000,7 +9933,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10009,7 +9942,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10021,7 +9954,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10029,7 +9962,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10125,7 +10058,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10168,7 +10101,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10495,7 +10428,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10511,7 +10444,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10527,7 +10460,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10543,7 +10476,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10559,7 +10492,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10574,9 +10507,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>223</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10584,7 +10515,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10595,7 +10526,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10604,7 +10535,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10616,7 +10547,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10624,7 +10555,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10720,7 +10651,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10763,7 +10694,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11090,7 +11021,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11106,7 +11037,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11122,7 +11053,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11138,7 +11069,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11154,7 +11085,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11169,9 +11100,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>191</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11179,7 +11108,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11190,7 +11119,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11199,7 +11128,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11211,7 +11140,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11219,7 +11148,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11315,7 +11244,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11358,7 +11287,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11685,7 +11614,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11701,7 +11630,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11717,7 +11646,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11733,7 +11662,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11749,7 +11678,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11764,9 +11693,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>97</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11774,7 +11701,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11785,7 +11712,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11794,7 +11721,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11806,7 +11733,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11814,7 +11741,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11910,7 +11837,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11953,7 +11880,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12280,7 +12207,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12296,7 +12223,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12312,7 +12239,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12328,7 +12255,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12344,7 +12271,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12359,9 +12286,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>80</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12369,7 +12294,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12380,7 +12305,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12389,7 +12314,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12401,7 +12326,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12503,7 +12428,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12546,7 +12471,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12873,7 +12798,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12889,7 +12814,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12905,7 +12830,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12921,7 +12846,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12937,7 +12862,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12952,9 +12877,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>252</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12962,7 +12885,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12973,7 +12896,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12982,7 +12905,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12994,7 +12917,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13002,7 +12925,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13098,7 +13021,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13141,7 +13064,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -13468,7 +13391,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -13484,7 +13407,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -13500,7 +13423,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -13516,7 +13439,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -13532,7 +13455,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -13547,9 +13470,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>97</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13557,7 +13478,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13568,7 +13489,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13577,7 +13498,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13589,7 +13510,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13597,7 +13518,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13693,7 +13614,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13736,7 +13657,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14063,7 +13984,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14079,7 +14000,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14095,7 +14016,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14111,7 +14032,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14127,7 +14048,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14142,9 +14063,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>80</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14152,7 +14071,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14163,7 +14082,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14172,7 +14091,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14184,7 +14103,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14192,7 +14111,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14288,7 +14207,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14331,7 +14250,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14658,7 +14577,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14674,7 +14593,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14690,7 +14609,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14706,7 +14625,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14722,7 +14641,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14737,9 +14656,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>61</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14747,7 +14664,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14758,7 +14675,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14767,7 +14684,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14779,7 +14696,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14787,7 +14704,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14883,7 +14800,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14926,7 +14843,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15253,7 +15170,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15269,7 +15186,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15285,7 +15202,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15301,7 +15218,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15317,7 +15234,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15332,9 +15249,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>276</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15342,7 +15257,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15353,7 +15268,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15362,7 +15277,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15374,7 +15289,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15382,7 +15297,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -15478,7 +15393,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15521,7 +15436,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15848,7 +15763,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15864,7 +15779,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15880,7 +15795,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15896,7 +15811,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15912,7 +15827,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15927,9 +15842,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>61</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15937,7 +15850,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15948,7 +15861,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15957,7 +15870,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15969,7 +15882,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15977,7 +15890,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16073,7 +15986,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16116,7 +16029,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -16499,7 +16412,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -16515,7 +16428,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -16531,7 +16444,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -16547,7 +16460,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -16563,7 +16476,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -16578,9 +16491,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -16588,7 +16499,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -16599,7 +16510,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -16608,7 +16519,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -16620,7 +16531,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -16628,7 +16539,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16724,7 +16635,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16767,7 +16678,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -17094,7 +17005,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17110,7 +17021,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17126,7 +17037,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17142,7 +17053,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17158,7 +17069,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17173,9 +17084,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>80</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17183,7 +17092,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17194,7 +17103,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17203,7 +17112,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17215,7 +17124,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17223,7 +17132,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17319,7 +17228,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17362,7 +17271,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -17689,7 +17598,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17705,7 +17614,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17721,7 +17630,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17737,7 +17646,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17753,7 +17662,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17768,9 +17677,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>89</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17778,7 +17685,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17789,7 +17696,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17798,7 +17705,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17810,7 +17717,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17914,7 +17821,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17957,7 +17864,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18284,7 +18191,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18300,7 +18207,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18316,7 +18223,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18332,7 +18239,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18348,7 +18255,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18363,9 +18270,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>97</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18373,7 +18278,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18384,7 +18289,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18393,7 +18298,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -18405,7 +18310,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -18413,7 +18318,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -18509,7 +18414,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -18552,7 +18457,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18879,7 +18784,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18895,7 +18800,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18911,7 +18816,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18927,7 +18832,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18943,7 +18848,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18958,9 +18863,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>97</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18968,7 +18871,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18979,7 +18882,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18988,7 +18891,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -19000,7 +18903,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -19008,7 +18911,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19104,7 +19007,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19147,7 +19050,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -19474,7 +19377,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -19490,7 +19393,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -19506,7 +19409,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -19522,7 +19425,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -19538,7 +19441,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -19553,9 +19456,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>113</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -19563,7 +19464,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -19574,7 +19475,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -19583,7 +19484,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -19595,7 +19496,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -19603,7 +19504,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19699,7 +19600,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19742,7 +19643,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
